--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/84.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/84.xlsx
@@ -479,13 +479,13 @@
         <v>-6.656081383887641</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.430390813275578</v>
+        <v>-9.517253798280056</v>
       </c>
       <c r="F2" t="n">
-        <v>2.630637568190724</v>
+        <v>2.448380281199002</v>
       </c>
       <c r="G2" t="n">
-        <v>-14.83157003956854</v>
+        <v>-14.70104822324251</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-6.046628170598335</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.98454018561292</v>
+        <v>-10.07047425931268</v>
       </c>
       <c r="F3" t="n">
-        <v>2.716297857505941</v>
+        <v>2.533889011301345</v>
       </c>
       <c r="G3" t="n">
-        <v>-14.57763991190784</v>
+        <v>-14.42704872239313</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-5.42119770546571</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.06512079679341</v>
+        <v>-10.16207958097807</v>
       </c>
       <c r="F4" t="n">
-        <v>2.637658182051614</v>
+        <v>2.435585750228286</v>
       </c>
       <c r="G4" t="n">
-        <v>-13.97922547139745</v>
+        <v>-13.83044810343036</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-4.836266528479247</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.68104765990109</v>
+        <v>-10.76020557008331</v>
       </c>
       <c r="F5" t="n">
-        <v>2.946956312480121</v>
+        <v>2.744781211512588</v>
       </c>
       <c r="G5" t="n">
-        <v>-13.44659750728827</v>
+        <v>-13.31634458633992</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-4.275722929535052</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.20913862563778</v>
+        <v>-11.28754362876249</v>
       </c>
       <c r="F6" t="n">
-        <v>2.922198381706064</v>
+        <v>2.725738529765954</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.1707792958844</v>
+        <v>-13.04477003289653</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-3.748734905085813</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.18788846635295</v>
+        <v>-12.26951532500296</v>
       </c>
       <c r="F7" t="n">
-        <v>3.031878361758434</v>
+        <v>2.82260442282014</v>
       </c>
       <c r="G7" t="n">
-        <v>-12.66853650945309</v>
+        <v>-12.55075544502224</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-3.245793018223361</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.97158648910568</v>
+        <v>-13.03222484127603</v>
       </c>
       <c r="F8" t="n">
-        <v>3.260659438095719</v>
+        <v>3.040820355318022</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.25308337292326</v>
+        <v>-12.13759036370613</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-2.776433961723491</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.70758736086479</v>
+        <v>-13.76457362490555</v>
       </c>
       <c r="F9" t="n">
-        <v>3.423370475633515</v>
+        <v>3.202866487921918</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.16362432527245</v>
+        <v>-12.04649838776177</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-2.334261505245593</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.72438345301829</v>
+        <v>-14.76801783930551</v>
       </c>
       <c r="F10" t="n">
-        <v>3.758110997797449</v>
+        <v>3.52656274357349</v>
       </c>
       <c r="G10" t="n">
-        <v>-11.6678008048574</v>
+        <v>-11.59664130990945</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-1.923614552031041</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.42895778863687</v>
+        <v>-15.4814266103326</v>
       </c>
       <c r="F11" t="n">
-        <v>3.838320044456055</v>
+        <v>3.598167138146326</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.06785610519767</v>
+        <v>-10.99650593898191</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-1.547987928328904</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.58309097268889</v>
+        <v>-16.6215381226903</v>
       </c>
       <c r="F12" t="n">
-        <v>4.111879534687414</v>
+        <v>3.880350836490923</v>
       </c>
       <c r="G12" t="n">
-        <v>-10.58816630744344</v>
+        <v>-10.51962732017616</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-1.208812552372186</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.46021791666836</v>
+        <v>-17.50270338634185</v>
       </c>
       <c r="F13" t="n">
-        <v>4.490474448447574</v>
+        <v>4.25069310665973</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.989732310905584</v>
+        <v>-9.949735345727353</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.9207109122668695</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.90631770180567</v>
+        <v>-18.9239865726227</v>
       </c>
       <c r="F14" t="n">
-        <v>4.557414730469374</v>
+        <v>4.312416818354532</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.479535110301807</v>
+        <v>-9.449853949612766</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.6914536350790721</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.66828897804183</v>
+        <v>-19.69508562467939</v>
       </c>
       <c r="F15" t="n">
-        <v>4.724222755761645</v>
+        <v>4.483952513287109</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.843929994554795</v>
+        <v>-8.832269713177203</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.531638277247763</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.9227201379686</v>
+        <v>-20.9260153285969</v>
       </c>
       <c r="F16" t="n">
-        <v>4.66107634306857</v>
+        <v>4.429601423947616</v>
       </c>
       <c r="G16" t="n">
-        <v>-8.597377378256274</v>
+        <v>-8.583101478204883</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-0.4480463912878971</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.25882704661405</v>
+        <v>-22.2610662117591</v>
       </c>
       <c r="F17" t="n">
-        <v>5.031633729539522</v>
+        <v>4.805600275061444</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.314905228506531</v>
+        <v>-8.304677426140943</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.4347880973623579</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.13119698691202</v>
+        <v>-23.14212880626644</v>
       </c>
       <c r="F18" t="n">
-        <v>5.126724913101018</v>
+        <v>4.901918599346535</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.836569685654438</v>
+        <v>-7.85124159526205</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.4842923014491557</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.17195410172027</v>
+        <v>-24.2071353951346</v>
       </c>
       <c r="F19" t="n">
-        <v>5.26204284516349</v>
+        <v>5.046369196236404</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.239607280183522</v>
+        <v>-7.262737171670897</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.5777597091621651</v>
       </c>
       <c r="E20" t="n">
-        <v>-25.09023181649858</v>
+        <v>-25.11734624858249</v>
       </c>
       <c r="F20" t="n">
-        <v>5.498186765842349</v>
+        <v>5.292090681367549</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.812733423612578</v>
+        <v>-6.858900315456856</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.6936032327760662</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.89198005260396</v>
+        <v>-25.9393203060963</v>
       </c>
       <c r="F21" t="n">
-        <v>5.58970408538413</v>
+        <v>5.406957897705716</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.227113514072904</v>
+        <v>-6.295510720141045</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.8109053916638106</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.45881639776094</v>
+        <v>-26.52463954171365</v>
       </c>
       <c r="F22" t="n">
-        <v>5.59849940873771</v>
+        <v>5.410663764910837</v>
       </c>
       <c r="G22" t="n">
-        <v>-5.989145993832686</v>
+        <v>-6.067355436682725</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.90870036821931</v>
       </c>
       <c r="E23" t="n">
-        <v>-27.14011661618958</v>
+        <v>-27.18579460734716</v>
       </c>
       <c r="F23" t="n">
-        <v>5.565571947489038</v>
+        <v>5.389201024765081</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.531647398247386</v>
+        <v>-5.638051743698923</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.9748690735452177</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.48254021264486</v>
+        <v>-27.5574031302945</v>
       </c>
       <c r="F24" t="n">
-        <v>5.704277961310281</v>
+        <v>5.532458703979422</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.232454845012792</v>
+        <v>-5.351111041672818</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-1.003700185523476</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.75036734232476</v>
+        <v>-27.81620026429121</v>
       </c>
       <c r="F25" t="n">
-        <v>5.417889717060138</v>
+        <v>5.248622521313808</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.799523508933739</v>
+        <v>-4.925571883976541</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-0.9967534599775101</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.80519266533035</v>
+        <v>-27.88312587929241</v>
       </c>
       <c r="F26" t="n">
-        <v>5.614261566876643</v>
+        <v>5.477178703335215</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.465643451978384</v>
+        <v>-4.606119286285451</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-0.9639271543013403</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.06093661453867</v>
+        <v>-28.13355303353296</v>
       </c>
       <c r="F27" t="n">
-        <v>5.534292081554516</v>
+        <v>5.396862098525537</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.29143835929647</v>
+        <v>-4.436333855811228</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-0.9168465538287137</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.83131218451684</v>
+        <v>-27.91266281427887</v>
       </c>
       <c r="F28" t="n">
-        <v>5.465562423019426</v>
+        <v>5.344505723987744</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.075178029545355</v>
+        <v>-4.203387345623332</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-0.8704207188267356</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.8849079222954</v>
+        <v>-27.97761082600241</v>
       </c>
       <c r="F29" t="n">
-        <v>5.458018685423776</v>
+        <v>5.337431331051318</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.577804693953496</v>
+        <v>-3.735665836679313</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-0.8400701939861712</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.59449846989722</v>
+        <v>-27.68673691795187</v>
       </c>
       <c r="F30" t="n">
-        <v>5.426562815242045</v>
+        <v>5.296979688234464</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.776718827340797</v>
+        <v>-3.906262842293443</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-0.8376236526753144</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.52558791810805</v>
+        <v>-27.62084777240646</v>
       </c>
       <c r="F31" t="n">
-        <v>5.574103264471804</v>
+        <v>5.428870426483229</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.041052761614288</v>
+        <v>-4.145917069902747</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-0.877777539771105</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.05647793121383</v>
+        <v>-27.15200668088991</v>
       </c>
       <c r="F32" t="n">
-        <v>5.565801730811783</v>
+        <v>5.428479305933876</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.89262251313475</v>
+        <v>-4.00814974539995</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-0.9685212410158164</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.66257798145679</v>
+        <v>-26.76109391432856</v>
       </c>
       <c r="F33" t="n">
-        <v>5.316247264296976</v>
+        <v>5.175903433175316</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.759147736661105</v>
+        <v>-3.865718308346117</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-1.115664887931741</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.32131307962896</v>
+        <v>-26.41672449314024</v>
       </c>
       <c r="F34" t="n">
-        <v>5.449140248953459</v>
+        <v>5.298153049882524</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.660306684832686</v>
+        <v>-3.763645622978667</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-1.32094348455756</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.12539101844421</v>
+        <v>-26.19828122182304</v>
       </c>
       <c r="F35" t="n">
-        <v>5.613968226464629</v>
+        <v>5.451716755572322</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.008330638654027</v>
+        <v>-4.097481678872221</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-1.575739753807523</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.44469459236364</v>
+        <v>-25.52368138730552</v>
       </c>
       <c r="F36" t="n">
-        <v>5.688090459573926</v>
+        <v>5.516750324916025</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.183777539080136</v>
+        <v>-4.260598503979971</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-1.871669338399172</v>
       </c>
       <c r="E37" t="n">
-        <v>-24.85248430156737</v>
+        <v>-24.93737212779761</v>
       </c>
       <c r="F37" t="n">
-        <v>5.702816148257075</v>
+        <v>5.527819036462721</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.320987516800105</v>
+        <v>-4.392283903940325</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-2.190739201793459</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.31140813359216</v>
+        <v>-24.38786731198384</v>
       </c>
       <c r="F38" t="n">
-        <v>5.504493584700669</v>
+        <v>5.342760348536256</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.28269192601156</v>
+        <v>-4.333527819413741</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-2.51362489852647</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.75943436931059</v>
+        <v>-23.83452951478641</v>
       </c>
       <c r="F39" t="n">
-        <v>5.478449845120613</v>
+        <v>5.311314256368259</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.496248634965271</v>
+        <v>-4.542498639926286</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-2.82116229066121</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.12021627748893</v>
+        <v>-23.20084577873809</v>
       </c>
       <c r="F40" t="n">
-        <v>5.54480833532525</v>
+        <v>5.381574174052694</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.274708177797887</v>
+        <v>-4.311268171148678</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.090776378698406</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.52194850718455</v>
+        <v>-22.60845459468774</v>
       </c>
       <c r="F41" t="n">
-        <v>5.664989902127753</v>
+        <v>5.489410998516236</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.644204649778718</v>
+        <v>-4.657605417600932</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.307948318615765</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.92869196891875</v>
+        <v>-22.00604583556708</v>
       </c>
       <c r="F42" t="n">
-        <v>5.614765134583936</v>
+        <v>5.439112895869416</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.606999307521495</v>
+        <v>-4.611340745619316</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.459116416931267</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.32596053534488</v>
+        <v>-21.41488179224033</v>
       </c>
       <c r="F43" t="n">
-        <v>5.4860620288124</v>
+        <v>5.319376228691802</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.913051137390371</v>
+        <v>-4.897548096615384</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.537416696828531</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.53165336769094</v>
+        <v>-20.61665853008599</v>
       </c>
       <c r="F44" t="n">
-        <v>5.562912327753436</v>
+        <v>5.388765903153925</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.052206939843371</v>
+        <v>-5.032196234737088</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.544789150780682</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.83496988915556</v>
+        <v>-19.92945972487243</v>
       </c>
       <c r="F45" t="n">
-        <v>5.563635900769739</v>
+        <v>5.391479301965063</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.159598864682025</v>
+        <v>-5.141152641773155</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.485650407472011</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.27487548446805</v>
+        <v>-19.36803062131025</v>
       </c>
       <c r="F46" t="n">
-        <v>5.685103276378241</v>
+        <v>5.493048419625222</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.064664129340271</v>
+        <v>-5.03227445884696</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.376569235434035</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.67344452672078</v>
+        <v>-18.75559450910555</v>
       </c>
       <c r="F47" t="n">
-        <v>5.726723391836289</v>
+        <v>5.545786136698633</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.33619468172186</v>
+        <v>-5.283188069270768</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.234716192045619</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.89508529946671</v>
+        <v>-17.98788842781449</v>
       </c>
       <c r="F48" t="n">
-        <v>5.734545802823352</v>
+        <v>5.542794064496081</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.40058290215913</v>
+        <v>-5.344237098017935</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.081791939672406</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.24318023482541</v>
+        <v>-17.34797609701773</v>
       </c>
       <c r="F49" t="n">
-        <v>5.516926329163234</v>
+        <v>5.319288226568197</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.522231171021708</v>
+        <v>-5.448250719111551</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.943681271067311</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.74958610154167</v>
+        <v>-16.8322005395788</v>
       </c>
       <c r="F50" t="n">
-        <v>5.595546448590094</v>
+        <v>5.395072722012245</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.861987814231095</v>
+        <v>-5.779710717667784</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.837533230938984</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.27997254694016</v>
+        <v>-16.35074092133875</v>
       </c>
       <c r="F51" t="n">
-        <v>5.56902358633708</v>
+        <v>5.354899752586806</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.938046094059691</v>
+        <v>-5.868270188055081</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.786059067936558</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.49864080351101</v>
+        <v>-15.58721005191204</v>
       </c>
       <c r="F52" t="n">
-        <v>5.596695365203819</v>
+        <v>5.384082234575421</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.286426945382316</v>
+        <v>-6.211747365490191</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.800002024929204</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.19215874103785</v>
+        <v>-15.24831387391123</v>
       </c>
       <c r="F53" t="n">
-        <v>5.760799769698686</v>
+        <v>5.546309260433393</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.683135629584396</v>
+        <v>-6.591672089118151</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.885295244537417</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.59496655224419</v>
+        <v>-14.66235662289774</v>
       </c>
       <c r="F54" t="n">
-        <v>5.750674636477305</v>
+        <v>5.519556614857634</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.878539456041253</v>
+        <v>-6.804695896323369</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.046179144398677</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.1719110100363</v>
+        <v>-14.23536054115513</v>
       </c>
       <c r="F55" t="n">
-        <v>5.655065218187916</v>
+        <v>5.421238686763974</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.366051664782543</v>
+        <v>-7.259779322516414</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.270805351097434</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.81488639457297</v>
+        <v>-13.87645365804803</v>
       </c>
       <c r="F56" t="n">
-        <v>5.368940980308586</v>
+        <v>5.149429460990971</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.554605992618852</v>
+        <v>-7.446329157537287</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.554583381109012</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.38125104150508</v>
+        <v>-13.43687327262998</v>
       </c>
       <c r="F57" t="n">
-        <v>5.398284799523809</v>
+        <v>5.177898147977017</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.015639340168931</v>
+        <v>-7.905954471109695</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-3.88275022140727</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.02636292204259</v>
+        <v>-13.07592278465251</v>
       </c>
       <c r="F58" t="n">
-        <v>5.303330508154587</v>
+        <v>5.079668222006962</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.408852384461168</v>
+        <v>-8.299055068243991</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.238699433139538</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.74116759546798</v>
+        <v>-12.79368041822551</v>
       </c>
       <c r="F59" t="n">
-        <v>5.263866444724849</v>
+        <v>5.046369196236404</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.399406823194287</v>
+        <v>-8.294689185111837</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-4.612998457439152</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.15558190897637</v>
+        <v>-12.21323307795103</v>
       </c>
       <c r="F60" t="n">
-        <v>5.260483251972945</v>
+        <v>5.039544142650191</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.662601618867788</v>
+        <v>-8.560734271788748</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-4.985681633008611</v>
       </c>
       <c r="E61" t="n">
-        <v>-11.93511214431284</v>
+        <v>-11.99354555438621</v>
       </c>
       <c r="F61" t="n">
-        <v>5.067396814771005</v>
+        <v>4.860567379266168</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.941861691105968</v>
+        <v>-8.829575870393533</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-5.349646411750615</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.71099029151973</v>
+        <v>-11.7772852246351</v>
       </c>
       <c r="F62" t="n">
-        <v>5.017572945790275</v>
+        <v>4.805419381807368</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.040790745057993</v>
+        <v>-8.927404897800502</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-5.69385709091328</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.65539250542917</v>
+        <v>-11.71582063030424</v>
       </c>
       <c r="F63" t="n">
-        <v>4.924178247611599</v>
+        <v>4.720272438213177</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.135329470843526</v>
+        <v>-9.010982470190413</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.006481353880398</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.65747522235448</v>
+        <v>-11.71921849007675</v>
       </c>
       <c r="F64" t="n">
-        <v>4.871743648963936</v>
+        <v>4.660416327141538</v>
       </c>
       <c r="G64" t="n">
-        <v>-9.255980382305255</v>
+        <v>-9.131442710384329</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-6.285850548161277</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.6251246639161</v>
+        <v>-11.68072245000666</v>
       </c>
       <c r="F65" t="n">
-        <v>4.959354652019051</v>
+        <v>4.749924264861016</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.294940878027699</v>
+        <v>-9.165171968759177</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-6.520518208448055</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.52296886543191</v>
+        <v>-11.57683594309158</v>
       </c>
       <c r="F66" t="n">
-        <v>4.803018879435712</v>
+        <v>4.592977366419312</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.43625273250901</v>
+        <v>-9.307481180641336</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-6.710783781578867</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.75619893801809</v>
+        <v>-11.80596413891642</v>
       </c>
       <c r="F67" t="n">
-        <v>4.712044239656159</v>
+        <v>4.504980131821711</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.626620881892944</v>
+        <v>-9.488613996053669</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-6.85356975470557</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.55844838826511</v>
+        <v>-11.60902027529648</v>
       </c>
       <c r="F68" t="n">
-        <v>4.699279042726644</v>
+        <v>4.486841916345456</v>
       </c>
       <c r="G68" t="n">
-        <v>-9.755817777358038</v>
+        <v>-9.633607272705765</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-6.944384281458492</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.73821228175471</v>
+        <v>-11.7753491779158</v>
       </c>
       <c r="F69" t="n">
-        <v>4.722785387742771</v>
+        <v>4.498487530702447</v>
       </c>
       <c r="G69" t="n">
-        <v>-9.769565664667804</v>
+        <v>-9.651999716539098</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-6.988854922688793</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.80180848307954</v>
+        <v>-11.84130188055048</v>
       </c>
       <c r="F70" t="n">
-        <v>4.836269015137601</v>
+        <v>4.610211115625188</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.750092750316881</v>
+        <v>-9.650650350643831</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-6.98279995581974</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.1015681611107</v>
+        <v>-12.14509010023997</v>
       </c>
       <c r="F71" t="n">
-        <v>4.652510803037736</v>
+        <v>4.425592438316746</v>
       </c>
       <c r="G71" t="n">
-        <v>-9.600513585223618</v>
+        <v>-9.507974463246651</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-6.934306197397015</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.21907055215013</v>
+        <v>-12.27850131962435</v>
       </c>
       <c r="F72" t="n">
-        <v>4.44208305847885</v>
+        <v>4.227807665515702</v>
       </c>
       <c r="G72" t="n">
-        <v>-9.589650211965333</v>
+        <v>-9.483055195245987</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-6.847064650241901</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.35828013367867</v>
+        <v>-12.4192900503709</v>
       </c>
       <c r="F73" t="n">
-        <v>4.513012770104051</v>
+        <v>4.283605900887801</v>
       </c>
       <c r="G73" t="n">
-        <v>-9.420309681115999</v>
+        <v>-9.327814560200835</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.723392630152375</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.62183671586032</v>
+        <v>-12.66991032038269</v>
       </c>
       <c r="F74" t="n">
-        <v>4.462964006807443</v>
+        <v>4.236461207670141</v>
       </c>
       <c r="G74" t="n">
-        <v>-9.420065230772654</v>
+        <v>-9.322935331347654</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.574144963067036</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.16564583867413</v>
+        <v>-13.20551568967383</v>
       </c>
       <c r="F75" t="n">
-        <v>4.54199969181799</v>
+        <v>4.310309656394891</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.437166976793122</v>
+        <v>-9.328484354141603</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.398184437966457</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.21512747717418</v>
+        <v>-13.26670161061327</v>
       </c>
       <c r="F76" t="n">
-        <v>4.485101429900834</v>
+        <v>4.255112768867421</v>
       </c>
       <c r="G76" t="n">
-        <v>-9.31961569568502</v>
+        <v>-9.2371772618951</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.20555161951936</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.73722940949889</v>
+        <v>-13.77303160678531</v>
       </c>
       <c r="F77" t="n">
-        <v>4.531434547978587</v>
+        <v>4.29894760443618</v>
       </c>
       <c r="G77" t="n">
-        <v>-9.115734331320931</v>
+        <v>-9.035740400964469</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.998910616059121</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.04334968546391</v>
+        <v>-14.08019324121298</v>
       </c>
       <c r="F78" t="n">
-        <v>4.488582402790078</v>
+        <v>4.263096517081093</v>
       </c>
       <c r="G78" t="n">
-        <v>-8.989749513367402</v>
+        <v>-8.910884943597196</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.778721376623372</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.23708147157228</v>
+        <v>-14.29140322687057</v>
       </c>
       <c r="F79" t="n">
-        <v>4.617221951472343</v>
+        <v>4.373964525802124</v>
       </c>
       <c r="G79" t="n">
-        <v>-8.912351645657271</v>
+        <v>-8.817627137610794</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.551782341332032</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.98157943726609</v>
+        <v>-15.02690541992926</v>
       </c>
       <c r="F80" t="n">
-        <v>4.489286419778914</v>
+        <v>4.251582905909508</v>
       </c>
       <c r="G80" t="n">
-        <v>-8.937632700166088</v>
+        <v>-8.830617228856186</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.312455871748809</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.57899652037563</v>
+        <v>-15.62204422583881</v>
       </c>
       <c r="F81" t="n">
-        <v>4.56044591472686</v>
+        <v>4.311942584688441</v>
       </c>
       <c r="G81" t="n">
-        <v>-8.580945426176573</v>
+        <v>-8.480769675473486</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-5.065216862675607</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.41118371323442</v>
+        <v>-16.43172243108233</v>
       </c>
       <c r="F82" t="n">
-        <v>4.579689045755038</v>
+        <v>4.330207914343235</v>
       </c>
       <c r="G82" t="n">
-        <v>-8.573553247793798</v>
+        <v>-8.465838648501927</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.807571804094782</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.14135688880817</v>
+        <v>-17.18124629583533</v>
       </c>
       <c r="F83" t="n">
-        <v>4.620468252031976</v>
+        <v>4.357913916258042</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.593236389439998</v>
+        <v>-8.48116079602284</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.536044559287615</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.29418959703358</v>
+        <v>-18.31370162343944</v>
       </c>
       <c r="F84" t="n">
-        <v>4.639207815352861</v>
+        <v>4.37861397133256</v>
       </c>
       <c r="G84" t="n">
-        <v>-8.453371680991294</v>
+        <v>-8.345569079575821</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-4.254920205621059</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.38909246289292</v>
+        <v>-19.41039386581206</v>
       </c>
       <c r="F85" t="n">
-        <v>4.851967616187265</v>
+        <v>4.586773216705198</v>
       </c>
       <c r="G85" t="n">
-        <v>-8.343701478952658</v>
+        <v>-8.240792773410966</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.960069335754435</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.54409100116037</v>
+        <v>-20.56481061226236</v>
       </c>
       <c r="F86" t="n">
-        <v>4.88685556918957</v>
+        <v>4.60302916453769</v>
       </c>
       <c r="G86" t="n">
-        <v>-8.023016851531107</v>
+        <v>-7.930521730615943</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.658950084456671</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.47758330530851</v>
+        <v>-21.4891555845625</v>
       </c>
       <c r="F87" t="n">
-        <v>4.96495256488167</v>
+        <v>4.674345107705378</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.875349288122807</v>
+        <v>-7.780399885760453</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.35685597611207</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.92640626727069</v>
+        <v>-22.94002704040191</v>
       </c>
       <c r="F88" t="n">
-        <v>5.028910552714651</v>
+        <v>4.745123260117706</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.901305025579259</v>
+        <v>-7.805788498420342</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.059049523531498</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.48092955769556</v>
+        <v>-24.48477231709296</v>
       </c>
       <c r="F89" t="n">
-        <v>4.841583365601938</v>
+        <v>4.560089017225575</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.419229392473977</v>
+        <v>-7.326778272620616</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.780912617424426</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.99931330936021</v>
+        <v>-26.01037713190004</v>
       </c>
       <c r="F90" t="n">
-        <v>5.067758601279157</v>
+        <v>4.784685103684781</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.506102155492189</v>
+        <v>-7.422089461491122</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.529656883084229</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.90655888920553</v>
+        <v>-27.89916671082275</v>
       </c>
       <c r="F91" t="n">
-        <v>4.907697405463228</v>
+        <v>4.643128798860126</v>
       </c>
       <c r="G91" t="n">
-        <v>-7.183271254056061</v>
+        <v>-7.09568469603528</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.320178893941569</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.63773666475265</v>
+        <v>-29.62875555913812</v>
       </c>
       <c r="F92" t="n">
-        <v>4.931052191266481</v>
+        <v>4.667192490659081</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.195806667662831</v>
+        <v>-7.102944871232649</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.165384255175027</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.33516807040088</v>
+        <v>-31.32070394358512</v>
       </c>
       <c r="F93" t="n">
-        <v>5.007882934180049</v>
+        <v>4.743871674359776</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.175473288103332</v>
+        <v>-7.098202534571741</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.070805560821632</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.55736347261286</v>
+        <v>-33.54158909195677</v>
       </c>
       <c r="F94" t="n">
-        <v>4.849616003884279</v>
+        <v>4.614987675334164</v>
       </c>
       <c r="G94" t="n">
-        <v>-6.841603009161711</v>
+        <v>-6.781991348433416</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-2.04719012189405</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.75082862597142</v>
+        <v>-35.72765228891881</v>
       </c>
       <c r="F95" t="n">
-        <v>4.803727785431415</v>
+        <v>4.574056909844352</v>
       </c>
       <c r="G95" t="n">
-        <v>-6.584460803989452</v>
+        <v>-6.54135931945073</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-2.097455698994529</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.96409181263756</v>
+        <v>-37.93536889729443</v>
       </c>
       <c r="F96" t="n">
-        <v>4.797284074380821</v>
+        <v>4.56825854770019</v>
       </c>
       <c r="G96" t="n">
-        <v>-6.29607295593074</v>
+        <v>-6.282232177490504</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-2.216411499168377</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.44983646352089</v>
+        <v>-40.42089598737219</v>
       </c>
       <c r="F97" t="n">
-        <v>4.447368074901985</v>
+        <v>4.223935572077105</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.231963408884884</v>
+        <v>-6.225754370163902</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.413193755679822</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.53706838666825</v>
+        <v>-42.50348090949255</v>
       </c>
       <c r="F98" t="n">
-        <v>4.4673592239808</v>
+        <v>4.253914962185027</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.108291091179403</v>
+        <v>-6.121168735266857</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.662141282620969</v>
       </c>
       <c r="E99" t="n">
-        <v>-45.02976031630948</v>
+        <v>-44.98736529326303</v>
       </c>
       <c r="F99" t="n">
-        <v>3.981807506993142</v>
+        <v>3.77980352126595</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.65526593687733</v>
+        <v>-5.691821041221253</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.986974244623641</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.61762898713236</v>
+        <v>-47.55677185190472</v>
       </c>
       <c r="F100" t="n">
-        <v>3.684634113594583</v>
+        <v>3.507138719291236</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.59374756347094</v>
+        <v>-5.672641467282346</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.337761748998879</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.76455201736961</v>
+        <v>-49.70199839675915</v>
       </c>
       <c r="F101" t="n">
-        <v>3.694461017397082</v>
+        <v>3.530513061121957</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.64999069846793</v>
+        <v>-5.730683756806361</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.776892555015459</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.91444145252336</v>
+        <v>-51.85599948668797</v>
       </c>
       <c r="F102" t="n">
-        <v>3.34146494359209</v>
+        <v>3.186405201801015</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.56244814150895</v>
+        <v>-5.677022017435102</v>
       </c>
     </row>
   </sheetData>
